--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lin\Desktop\package of test\APITest\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A3520D-7805-4F14-9D16-FCFE347E14C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{084607B0-A279-4DF8-BC44-1581873B125B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="type" sheetId="1" r:id="rId1"/>
+    <sheet name="type" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -106,11 +106,27 @@
     <t>{"type":"4"}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,30 +190,30 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -214,10 +230,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -252,7 +268,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -287,7 +303,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -381,21 +397,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -412,7 +428,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -464,28 +480,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="47.5" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
-    <col min="6" max="6" width="32.25" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="16.25" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="47.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.25" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -514,9 +530,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
+    <row customHeight="1" ht="18" r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -531,14 +547,16 @@
         <v>11</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -553,14 +571,16 @@
         <v>13</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1</v>
+      <c r="A4" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -581,8 +601,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>1</v>
+      <c r="A5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
@@ -597,7 +617,9 @@
         <v>17</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H5" s="1">
         <v>1</v>
       </c>
@@ -605,9 +627,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{ED8A76DE-5903-4588-9936-D2EAC2E2EC62}"/>
-    <hyperlink ref="D3:D5" r:id="rId2" display="https://www.zengdashuai.cn/jia/findByRubbishType" xr:uid="{7A6AF0D1-F707-4614-9BC8-84EA8BDE07E1}"/>
+    <hyperlink r:id="rId1" ref="D2" xr:uid="{ED8A76DE-5903-4588-9936-D2EAC2E2EC62}"/>
+    <hyperlink display="https://www.zengdashuai.cn/jia/findByRubbishType" r:id="rId2" ref="D3:D5" xr:uid="{7A6AF0D1-F707-4614-9BC8-84EA8BDE07E1}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lin\Desktop\package of test\APITest\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{084607B0-A279-4DF8-BC44-1581873B125B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{F6331404-EC87-4CCC-BFAC-A05DA9D83F34}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
     <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -491,7 +491,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -571,8 +571,8 @@
         <v>13</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
+      <c r="G3" s="1">
+        <v>2</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -595,7 +595,9 @@
         <v>15</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lin\Desktop\package of test\APITest\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{F6331404-EC87-4CCC-BFAC-A05DA9D83F34}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2BCB75-A1BD-4677-8F8F-3BF78738929D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="type" r:id="rId1" sheetId="1"/>
+    <sheet name="type" sheetId="1" r:id="rId1"/>
+    <sheet name="searchType" sheetId="3" r:id="rId2"/>
+    <sheet name="variable" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -119,15 +121,109 @@
     <t>4</t>
   </si>
   <si>
-    <t/>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试查询到垃圾分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试查询不到垃圾分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试查询空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://www.zengdashuai.cn/jia</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/findByRubbishType</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zengdashuai.cn/jia/findByRubbishName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"${haveType}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"${noType}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"${kongge}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${haveType}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${noType}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${kongge}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可查询到垃圾分类参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可查询到垃圾分类参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +267,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -190,30 +295,31 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" name="超链接" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -230,10 +336,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -268,7 +374,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -303,7 +409,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -397,21 +503,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -428,7 +534,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -480,28 +586,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="16.25" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="47.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.25" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.75" collapsed="true"/>
+    <col min="2" max="2" width="16.25" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.25" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -530,7 +636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -541,7 +647,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>11</v>
@@ -629,9 +735,191 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2" xr:uid="{ED8A76DE-5903-4588-9936-D2EAC2E2EC62}"/>
-    <hyperlink display="https://www.zengdashuai.cn/jia/findByRubbishType" r:id="rId2" ref="D3:D5" xr:uid="{7A6AF0D1-F707-4614-9BC8-84EA8BDE07E1}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{ED8A76DE-5903-4588-9936-D2EAC2E2EC62}"/>
+    <hyperlink ref="D3:D5" r:id="rId2" display="https://www.zengdashuai.cn/jia/findByRubbishType" xr:uid="{7A6AF0D1-F707-4614-9BC8-84EA8BDE07E1}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A55A5F-FBC8-4F26-BB97-2CFC7841149F}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="43.125" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{0030D313-2B01-4605-9B98-5AF484904A77}"/>
+    <hyperlink ref="D3:D4" r:id="rId2" display="https://www.zengdashuai.cn/jia/findByRubbishName" xr:uid="{C5E2059B-9585-4A3D-B7FB-340590A8A053}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CFC195-C1BB-41B1-A984-993F991392FF}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lin\Desktop\package of test\APITest\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2BCB75-A1BD-4677-8F8F-3BF78738929D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{547446E4-5956-4878-A5C2-D4E7381B105D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="type" sheetId="1" r:id="rId1"/>
-    <sheet name="searchType" sheetId="3" r:id="rId2"/>
-    <sheet name="variable" sheetId="2" r:id="rId3"/>
+    <sheet name="type" r:id="rId1" sheetId="1"/>
+    <sheet name="searchType" r:id="rId2" sheetId="3"/>
+    <sheet name="variable" r:id="rId3" sheetId="2"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -218,11 +218,28 @@
     <t>空格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>{"empty":"false"}</t>
+  </si>
+  <si>
+    <t>empty:false</t>
+  </si>
+  <si>
+    <t>{"empty":"true"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty:true</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -295,31 +312,31 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -336,10 +353,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -374,7 +391,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -409,7 +426,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -503,21 +520,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -534,7 +551,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -586,15 +603,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -602,12 +619,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.25" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.25" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="16.25" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="47.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.25" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -636,7 +653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -735,31 +752,31 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{ED8A76DE-5903-4588-9936-D2EAC2E2EC62}"/>
-    <hyperlink ref="D3:D5" r:id="rId2" display="https://www.zengdashuai.cn/jia/findByRubbishType" xr:uid="{7A6AF0D1-F707-4614-9BC8-84EA8BDE07E1}"/>
+    <hyperlink r:id="rId1" ref="D2" xr:uid="{ED8A76DE-5903-4588-9936-D2EAC2E2EC62}"/>
+    <hyperlink display="https://www.zengdashuai.cn/jia/findByRubbishType" r:id="rId2" ref="D3:D5" xr:uid="{7A6AF0D1-F707-4614-9BC8-84EA8BDE07E1}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A55A5F-FBC8-4F26-BB97-2CFC7841149F}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A55A5F-FBC8-4F26-BB97-2CFC7841149F}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="43.125" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="11.125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.25" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.25" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="43.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.75" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -789,8 +806,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -804,13 +821,19 @@
       <c r="E2" t="s">
         <v>31</v>
       </c>
-      <c r="H2">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -824,13 +847,19 @@
       <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="H3">
-        <v>1</v>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -844,33 +873,39 @@
       <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="H4">
-        <v>1</v>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{0030D313-2B01-4605-9B98-5AF484904A77}"/>
-    <hyperlink ref="D3:D4" r:id="rId2" display="https://www.zengdashuai.cn/jia/findByRubbishName" xr:uid="{C5E2059B-9585-4A3D-B7FB-340590A8A053}"/>
+    <hyperlink r:id="rId1" ref="D2" xr:uid="{0030D313-2B01-4605-9B98-5AF484904A77}"/>
+    <hyperlink display="https://www.zengdashuai.cn/jia/findByRubbishName" r:id="rId2" ref="D3:D4" xr:uid="{C5E2059B-9585-4A3D-B7FB-340590A8A053}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CFC195-C1BB-41B1-A984-993F991392FF}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CFC195-C1BB-41B1-A984-993F991392FF}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -919,7 +954,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lin\Desktop\package of test\APITest\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{547446E4-5956-4878-A5C2-D4E7381B105D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F62C6A-595D-4859-B1AE-198C1FE89570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="type" r:id="rId1" sheetId="1"/>
-    <sheet name="searchType" r:id="rId2" sheetId="3"/>
-    <sheet name="variable" r:id="rId3" sheetId="2"/>
+    <sheet name="type" sheetId="1" r:id="rId1"/>
+    <sheet name="searchType" sheetId="3" r:id="rId2"/>
+    <sheet name="variable" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -219,9 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>{"empty":"false"}</t>
   </si>
   <si>
@@ -233,13 +230,28 @@
   </si>
   <si>
     <t>empty:true</t>
+  </si>
+  <si>
+    <t>preCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>afterCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>afterResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -312,31 +324,31 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" name="超链接" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -353,10 +365,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -391,7 +403,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -426,7 +438,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -520,21 +532,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -551,7 +563,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -603,15 +615,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -619,12 +631,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="16.25" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="47.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.25" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.75" collapsed="true"/>
+    <col min="2" max="2" width="16.25" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.25" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -653,7 +665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -752,34 +764,36 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2" xr:uid="{ED8A76DE-5903-4588-9936-D2EAC2E2EC62}"/>
-    <hyperlink display="https://www.zengdashuai.cn/jia/findByRubbishType" r:id="rId2" ref="D3:D5" xr:uid="{7A6AF0D1-F707-4614-9BC8-84EA8BDE07E1}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{ED8A76DE-5903-4588-9936-D2EAC2E2EC62}"/>
+    <hyperlink ref="D3:D5" r:id="rId2" display="https://www.zengdashuai.cn/jia/findByRubbishType" xr:uid="{7A6AF0D1-F707-4614-9BC8-84EA8BDE07E1}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A55A5F-FBC8-4F26-BB97-2CFC7841149F}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A55A5F-FBC8-4F26-BB97-2CFC7841149F}">
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.25" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.25" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="43.125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.75" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.125" collapsed="true"/>
+    <col min="1" max="1" width="10.25" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="43.125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -804,8 +818,20 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -822,16 +848,16 @@
         <v>31</v>
       </c>
       <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
         <v>44</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -848,16 +874,16 @@
         <v>32</v>
       </c>
       <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
         <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -874,10 +900,10 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
         <v>46</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
@@ -886,16 +912,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2" xr:uid="{0030D313-2B01-4605-9B98-5AF484904A77}"/>
-    <hyperlink display="https://www.zengdashuai.cn/jia/findByRubbishName" r:id="rId2" ref="D3:D4" xr:uid="{C5E2059B-9585-4A3D-B7FB-340590A8A053}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{0030D313-2B01-4605-9B98-5AF484904A77}"/>
+    <hyperlink ref="D3:D4" r:id="rId2" display="https://www.zengdashuai.cn/jia/findByRubbishName" xr:uid="{C5E2059B-9585-4A3D-B7FB-340590A8A053}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CFC195-C1BB-41B1-A984-993F991392FF}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CFC195-C1BB-41B1-A984-993F991392FF}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -903,9 +929,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="1" max="1" width="17.375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -954,7 +980,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lin\Desktop\package of test\APITest\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F62C6A-595D-4859-B1AE-198C1FE89570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D8F62C6A-595D-4859-B1AE-198C1FE89570}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="type" sheetId="1" r:id="rId1"/>
-    <sheet name="searchType" sheetId="3" r:id="rId2"/>
-    <sheet name="variable" sheetId="2" r:id="rId3"/>
+    <sheet name="type" r:id="rId1" sheetId="1"/>
+    <sheet name="searchType" r:id="rId2" sheetId="3"/>
+    <sheet name="variable" r:id="rId3" sheetId="2"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t>id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -247,11 +247,15 @@
     <t>afterResult</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -324,31 +328,31 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -365,10 +369,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -403,7 +407,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -438,7 +442,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -532,21 +536,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -563,7 +567,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -615,15 +619,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -631,12 +635,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.25" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.25" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="16.25" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="47.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.25" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -665,7 +669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="18" r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -764,16 +768,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{ED8A76DE-5903-4588-9936-D2EAC2E2EC62}"/>
-    <hyperlink ref="D3:D5" r:id="rId2" display="https://www.zengdashuai.cn/jia/findByRubbishType" xr:uid="{7A6AF0D1-F707-4614-9BC8-84EA8BDE07E1}"/>
+    <hyperlink r:id="rId1" ref="D2" xr:uid="{ED8A76DE-5903-4588-9936-D2EAC2E2EC62}"/>
+    <hyperlink display="https://www.zengdashuai.cn/jia/findByRubbishType" r:id="rId2" ref="D3:D5" xr:uid="{7A6AF0D1-F707-4614-9BC8-84EA8BDE07E1}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A55A5F-FBC8-4F26-BB97-2CFC7841149F}">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A55A5F-FBC8-4F26-BB97-2CFC7841149F}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
@@ -781,16 +785,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.25" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="43.125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="10.875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.25" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.25" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="43.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.75" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.0" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -856,6 +860,18 @@
       <c r="H2" t="s">
         <v>18</v>
       </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -882,6 +898,18 @@
       <c r="H3" t="s">
         <v>18</v>
       </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -908,20 +936,32 @@
       <c r="H4" t="s">
         <v>18</v>
       </c>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{0030D313-2B01-4605-9B98-5AF484904A77}"/>
-    <hyperlink ref="D3:D4" r:id="rId2" display="https://www.zengdashuai.cn/jia/findByRubbishName" xr:uid="{C5E2059B-9585-4A3D-B7FB-340590A8A053}"/>
+    <hyperlink r:id="rId1" ref="D2" xr:uid="{0030D313-2B01-4605-9B98-5AF484904A77}"/>
+    <hyperlink display="https://www.zengdashuai.cn/jia/findByRubbishName" r:id="rId2" ref="D3:D4" xr:uid="{C5E2059B-9585-4A3D-B7FB-340590A8A053}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CFC195-C1BB-41B1-A984-993F991392FF}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CFC195-C1BB-41B1-A984-993F991392FF}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -929,9 +969,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -980,7 +1020,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lin\Desktop\package of test\APITest\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{D8F62C6A-595D-4859-B1AE-198C1FE89570}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3CF07A4C-506F-44C8-9ECC-66765B2E6B87}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="2" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="type" r:id="rId1" sheetId="1"/>
     <sheet name="searchType" r:id="rId2" sheetId="3"/>
-    <sheet name="variable" r:id="rId3" sheetId="2"/>
+    <sheet name="searchCollectin" r:id="rId3" sheetId="4"/>
+    <sheet name="variable" r:id="rId4" sheetId="2"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
   <si>
     <t>id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -249,6 +250,66 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>https://www.zengdashuai.cn/jia/collectK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findBySelect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":"${userId}","kId":"${hasKId}"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":"${userId}","kId":"${noKId}"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏id号为kid的小知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${userId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${hasKId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${noKId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效的userID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据表有该收藏记录的小知识ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据表wu该收藏记录的小知识ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findBySelect,
+findCollectionNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161403</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -331,7 +392,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
@@ -346,6 +407,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -627,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -643,7 +707,7 @@
     <col min="7" max="7" customWidth="true" width="22.75" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row ht="28.5" r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,8 +732,20 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row customHeight="1" ht="18" r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -686,14 +762,12 @@
         <v>11</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -710,14 +784,12 @@
         <v>13</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -734,14 +806,12 @@
         <v>15</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -758,9 +828,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1">
         <v>1</v>
       </c>
@@ -779,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A55A5F-FBC8-4F26-BB97-2CFC7841149F}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -960,11 +1028,134 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81F8410-DD1F-4ACB-89B7-059D2CC88A2A}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="24.5" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="43.625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="15.875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="20.75" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="12.875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="16.375" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="12.0" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="12.375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row ht="28.5" r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row ht="42.75" r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row ht="42.75" r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D2" xr:uid="{045E4C23-342D-4C7D-9B77-4A35CBD86C18}"/>
+    <hyperlink r:id="rId2" ref="D3" xr:uid="{AFA5F2B7-76BA-4AEF-A706-1D884CC253AC}"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CFC195-C1BB-41B1-A984-993F991392FF}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1018,6 +1209,39 @@
         <v>42</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lin\Desktop\package of test\APITest\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{3CF07A4C-506F-44C8-9ECC-66765B2E6B87}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3B7752F3-5948-4A07-8047-C39C46578D1A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
     <workbookView activeTab="2" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="69">
   <si>
     <t>id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -298,11 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>findBySelect,
-findCollectionNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>161403</t>
   </si>
   <si>
@@ -310,6 +305,16 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>knowledgecollection{id=226, isValid=1, userId=161403, knowledgeId=5, time=Mon Apr 20 22:52:46 CST 2020}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowledgecollection{id=226, isValid=1, userId=161403, knowledgeId=5, time=Mon Apr 20 22:52:46 CST 2020}</t>
+  </si>
+  <si>
+    <t>knowledgecollection{id=240, isValid=1, userId=161403, knowledgeId=12, time=Sun May 24 22:55:59 CST 2020}</t>
   </si>
 </sst>
 </file>
@@ -861,8 +866,8 @@
     <col min="6" max="6" customWidth="true" width="19.875" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="13.75" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="11.125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.0" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="10.875" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -1031,23 +1036,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81F8410-DD1F-4ACB-89B7-059D2CC88A2A}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="24.5" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="43.625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="15.875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="20.75" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="12.875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="16.375" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="12.0" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="12.375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="43.625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.75" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.5" r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1086,8 +1091,8 @@
       </c>
     </row>
     <row ht="42.75" r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -1101,20 +1106,31 @@
       <c r="E2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="H2">
-        <v>1</v>
+      <c r="F2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
       </c>
       <c r="I2" t="s">
         <v>53</v>
       </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
       <c r="K2" t="s">
         <v>53</v>
       </c>
+      <c r="L2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row ht="42.75" r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -1128,15 +1144,26 @@
       <c r="E3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>63</v>
+      <c r="F3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +1241,7 @@
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
@@ -1225,7 +1252,7 @@
         <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
         <v>61</v>
@@ -1236,7 +1263,7 @@
         <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
         <v>62</v>

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="69">
   <si>
     <t>id</t>
     <phoneticPr fontId="3" type="noConversion"/>
